--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\claudio\@LCTM\lctm001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{037F05E5-6391-41F5-905D-B81059916D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA36B55B-4103-4838-B899-98EDFE8FA5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{1F382C89-8065-4968-82B7-03CB40F0F9D0}"/>
   </bookViews>
